--- a/采购表.xlsx
+++ b/采购表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\why so serious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\why-so-serious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D66D5A-FD02-4385-A9CD-4FCADA35C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD557E-286F-4585-9FB9-D87F33665D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>货品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,18 +159,6 @@
   </si>
   <si>
     <t>太详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语阅读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语作文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,6 +251,74 @@
       <t xml:space="preserve"> 这是一个
 很好的切入角度                 这里是说文章的第二段</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇高数十八讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇概率论九讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐线性代数讲义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇1000题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐600题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟题 基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟题 难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟题 准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐王式安 历年真题详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武忠祥高数讲义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -464,11 +520,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -479,9 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -498,6 +590,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -778,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -789,63 +887,68 @@
     <col min="1" max="1" width="6.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="48.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
-    <col min="5" max="12" width="15.77734375" customWidth="1"/>
+    <col min="4" max="5" width="36.21875" customWidth="1"/>
+    <col min="6" max="13" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -853,15 +956,16 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -869,201 +973,378 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,16 +1384,16 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1132,49 +1413,49 @@
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5"/>
     </row>

--- a/采购表.xlsx
+++ b/采购表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\why-so-serious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD557E-286F-4585-9FB9-D87F33665D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85C731F-55D5-7844-980A-934BAD490591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="1080" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="采购单" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>货品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,12 +321,20 @@
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,12 +598,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -876,50 +884,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" customWidth="1"/>
-    <col min="4" max="5" width="36.21875" customWidth="1"/>
-    <col min="6" max="13" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" customWidth="1"/>
+    <col min="4" max="6" width="36.1640625" customWidth="1"/>
+    <col min="7" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" ht="25" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" ht="25" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -933,22 +943,25 @@
         <v>57</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="25" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -959,13 +972,16 @@
         <v>54</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="25" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -980,9 +996,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="25" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -997,9 +1014,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="25" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1014,9 +1032,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="25" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1031,9 +1050,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="25" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1048,9 +1068,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="25" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1065,9 +1086,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="25" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1082,9 +1104,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="25" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1095,13 +1118,16 @@
         <v>53</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="25" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1116,9 +1142,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="25" customHeight="1">
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1133,9 +1160,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="25" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1150,9 +1178,10 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="25" customHeight="1">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1169,9 +1198,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="25" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1188,9 +1218,10 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="25" customHeight="1">
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>60</v>
@@ -1205,9 +1236,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="25" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1222,114 +1254,140 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="25" customHeight="1">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" ht="25" customHeight="1">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19">
+        <v>660</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="19">
+        <v>5</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="25" customHeight="1">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19">
+        <v>880</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="19">
+        <v>5</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="25" customHeight="1">
       <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" ht="25" customHeight="1">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" ht="25" customHeight="1">
       <c r="A25" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-    </row>
-    <row r="28" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="1:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" ht="25" customHeight="1">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" ht="25" customHeight="1">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" ht="25" customHeight="1">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" ht="25" customHeight="1" thickBot="1">
       <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
@@ -1340,11 +1398,12 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A1:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1356,20 +1415,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C58642-A9F2-4542-958E-12924A715C96}">
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.77734375" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="16" thickBot="1"/>
+    <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="30" customHeight="1">
       <c r="B3" s="12" t="s">
         <v>29</v>
       </c>
@@ -1397,7 +1456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="30" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1411,7 +1470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="30" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +1482,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="30" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1435,7 +1494,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="30" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1506,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1459,55 +1518,55 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" customHeight="1">
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="30" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="30" customHeight="1">
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="30" customHeight="1">
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="30" customHeight="1">
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="30" customHeight="1">
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="30" customHeight="1">
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>

--- a/采购表.xlsx
+++ b/采购表.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github res\why-so-serious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85C731F-55D5-7844-980A-934BAD490591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460BEAA-2392-4800-9F8A-0C933D984026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="1080" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="采购单" sheetId="1" r:id="rId1"/>
     <sheet name="部分货物说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>货品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,9 +90,6 @@
     <t>#10</t>
   </si>
   <si>
-    <t>#11</t>
-  </si>
-  <si>
     <t>#12</t>
   </si>
   <si>
@@ -98,10 +106,6 @@
   </si>
   <si>
     <t>总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,14 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张宇高数十八讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宇概率论九讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李永乐线性代数讲义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张宇1000题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李永乐600题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +319,49 @@
   </si>
   <si>
     <t>高数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林强化880题高数线代概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐朔飞 计算机组成原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武忠祥 高等数学辅导讲义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,15 +386,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -369,6 +395,14 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -571,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -594,16 +628,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -884,435 +921,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" customWidth="1"/>
-    <col min="4" max="6" width="36.1640625" customWidth="1"/>
-    <col min="7" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="6" width="36.109375" customWidth="1"/>
+    <col min="7" max="14" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21"/>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="D2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24">
+        <v>45145</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="23">
+        <v>58.8</v>
+      </c>
+      <c r="J2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="25">
+        <f t="shared" ref="K2:K18" si="0">I2*J2</f>
+        <v>58.8</v>
+      </c>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="25" customHeight="1">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="23">
+        <v>5</v>
+      </c>
+      <c r="G4" s="24">
+        <v>45145</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="23">
+        <v>43.7</v>
+      </c>
+      <c r="J4" s="23">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="K4" s="25">
+        <f t="shared" si="0"/>
+        <v>43.7</v>
+      </c>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="D7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="23">
+        <v>4</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="25" customHeight="1">
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="25" customHeight="1">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="25" customHeight="1">
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="25" customHeight="1">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="25" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="25" customHeight="1">
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="25" customHeight="1">
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1">
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="25" customHeight="1">
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="25" customHeight="1">
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="25" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="25" customHeight="1">
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="25" customHeight="1">
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C19" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="26">
+        <v>408</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="25" customHeight="1">
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="25" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="25" customHeight="1">
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="25" customHeight="1">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" ht="25" customHeight="1">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19">
-        <v>660</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="19">
-        <v>5</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" ht="25" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19">
-        <v>880</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="19">
-        <v>5</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" ht="25" customHeight="1">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -1324,7 +1473,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="25" customHeight="1">
+    <row r="24" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -1336,10 +1485,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="25" customHeight="1">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
+    <row r="25" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -1351,60 +1497,24 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" ht="25" customHeight="1">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="1:11" ht="25" customHeight="1">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" ht="25" customHeight="1">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" ht="25" customHeight="1" thickBot="1">
-      <c r="B29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
+    <row r="26" spans="1:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L2"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
+    <sortCondition descending="1" ref="F1:F28"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1419,154 +1529,154 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="16" thickBot="1"/>
-    <row r="2" spans="2:5">
+    <row r="1" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1">
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="13" t="s">
+    </row>
+    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>

--- a/采购表.xlsx
+++ b/采购表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github res\why-so-serious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460BEAA-2392-4800-9F8A-0C933D984026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B804D2F-4C1F-9141-BF78-FCCC604C03FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="460" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="采购单" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>货品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,12 +353,20 @@
     <t>强化课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>眼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,20 +920,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
-    <col min="4" max="6" width="36.109375" customWidth="1"/>
-    <col min="7" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" customWidth="1"/>
+    <col min="4" max="6" width="36.1640625" customWidth="1"/>
+    <col min="7" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="25" customHeight="1">
       <c r="A1" s="21"/>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -970,7 +967,7 @@
       </c>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="25" customHeight="1">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
         <v>5</v>
@@ -1003,7 +1000,7 @@
       </c>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="25" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
         <v>13</v>
@@ -1030,7 +1027,7 @@
       </c>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="25" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
         <v>66</v>
@@ -1051,7 +1048,7 @@
         <v>45145</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I4" s="23">
         <v>43.7</v>
@@ -1065,7 +1062,7 @@
       </c>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="25" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
         <v>6</v>
@@ -1088,7 +1085,7 @@
       </c>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="25" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
         <v>7</v>
@@ -1111,7 +1108,7 @@
       </c>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="25" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>8</v>
@@ -1134,7 +1131,7 @@
       </c>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="25" customHeight="1">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
         <v>9</v>
@@ -1157,7 +1154,7 @@
       </c>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="25" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
@@ -1180,7 +1177,7 @@
       </c>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="25" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
         <v>11</v>
@@ -1207,26 +1204,40 @@
       </c>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="25" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="F11" s="23">
+        <v>3</v>
+      </c>
+      <c r="G11" s="24">
+        <v>45147</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="23">
+        <v>48</v>
+      </c>
+      <c r="J11" s="23">
+        <v>1</v>
+      </c>
       <c r="K11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="25" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
         <v>13</v>
@@ -1245,7 +1256,7 @@
       </c>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="25" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
         <v>14</v>
@@ -1268,7 +1279,7 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="25" customHeight="1">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
         <v>15</v>
@@ -1291,7 +1302,7 @@
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="25" customHeight="1">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
         <v>16</v>
@@ -1316,7 +1327,7 @@
       </c>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="25" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
         <v>17</v>
@@ -1341,7 +1352,7 @@
       </c>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="25" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
         <v>18</v>
@@ -1366,7 +1377,7 @@
       </c>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="25" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
         <v>19</v>
@@ -1389,7 +1400,7 @@
       </c>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="25" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
         <v>67</v>
@@ -1409,7 +1420,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="25" customHeight="1">
       <c r="A20" s="21" t="s">
         <v>61</v>
       </c>
@@ -1427,7 +1438,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="25" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="s">
         <v>69</v>
@@ -1443,7 +1454,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="25" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>61</v>
       </c>
@@ -1461,7 +1472,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="25" customHeight="1">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -1473,7 +1484,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="25" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -1485,7 +1496,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="25" customHeight="1">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -1497,7 +1508,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
@@ -1529,16 +1540,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.77734375" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="16" thickBot="1"/>
+    <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1552,7 +1563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="30" customHeight="1">
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
@@ -1566,7 +1577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="30" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1580,7 +1591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="30" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +1603,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="30" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1615,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="30" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1616,7 +1627,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1628,55 +1639,55 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" customHeight="1">
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="30" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="30" customHeight="1">
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="30" customHeight="1">
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="30" customHeight="1">
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="30" customHeight="1">
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="30" customHeight="1">
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
